--- a/FBG_Needle_Calibration_Data/needle_1/Calibration/0 deg/12-28-19_14-58/curvature_data.xlsx
+++ b/FBG_Needle_Calibration_Data/needle_1/Calibration/0 deg/12-28-19_14-58/curvature_data.xlsx
@@ -379,156 +379,156 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2">
-        <v>54007.731045</v>
+        <v>53917.79904</v>
       </c>
       <c r="B2">
-        <v>-0.0005289297000000001</v>
+        <v>-2.6101296439e-05</v>
       </c>
       <c r="C2">
-        <v>-0.0004399406</v>
+        <v>-2.2385869586e-05</v>
       </c>
       <c r="D2">
-        <v>-0.0001545882</v>
+        <v>-1.1376706446e-05</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3">
-        <v>54029.199046</v>
+        <v>53929.267041</v>
       </c>
       <c r="B3">
-        <v>-0.00015127031304</v>
+        <v>-0.00017036153384</v>
       </c>
       <c r="C3">
-        <v>-0.00012698569749</v>
+        <v>-0.00014076795987</v>
       </c>
       <c r="D3">
-        <v>-5.4829716529e-05</v>
+        <v>-5.2807126601e-05</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4">
-        <v>53985.863044</v>
+        <v>53942.271041</v>
       </c>
       <c r="B4">
-        <v>-0.0008917196</v>
+        <v>-0.0003592551</v>
       </c>
       <c r="C4">
-        <v>-0.0007622968</v>
+        <v>-0.0002957541</v>
       </c>
       <c r="D4">
-        <v>-0.0002534373</v>
+        <v>-0.00010203</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5">
-        <v>53996.731044</v>
+        <v>53956.067042</v>
       </c>
       <c r="B5">
-        <v>-0.000711702</v>
+        <v>-0.0005399686</v>
       </c>
       <c r="C5">
-        <v>-0.0005991642</v>
+        <v>-0.0004482831</v>
       </c>
       <c r="D5">
-        <v>-0.0002066752</v>
+        <v>-0.0001535576</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6">
-        <v>53942.271041</v>
+        <v>53973.531043</v>
       </c>
       <c r="B6">
-        <v>-0.0003592551</v>
+        <v>-0.0007221125</v>
       </c>
       <c r="C6">
-        <v>-0.0002957541</v>
+        <v>-0.0006071596</v>
       </c>
       <c r="D6">
-        <v>-0.00010203</v>
+        <v>-0.0002049888</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7">
-        <v>53956.067042</v>
+        <v>53985.863044</v>
       </c>
       <c r="B7">
-        <v>-0.0005399686</v>
+        <v>-0.0008917196</v>
       </c>
       <c r="C7">
-        <v>-0.0004482831</v>
+        <v>-0.0007622968</v>
       </c>
       <c r="D7">
-        <v>-0.0001535576</v>
+        <v>-0.0002534373</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8">
-        <v>53917.79904</v>
+        <v>53996.731044</v>
       </c>
       <c r="B8">
-        <v>-2.6101296439e-05</v>
+        <v>-0.000711702</v>
       </c>
       <c r="C8">
-        <v>-2.2385869586e-05</v>
+        <v>-0.0005991642</v>
       </c>
       <c r="D8">
-        <v>-1.1376706446e-05</v>
+        <v>-0.0002066752</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9">
-        <v>54041.731046</v>
+        <v>54007.731045</v>
       </c>
       <c r="B9">
-        <v>-2.1256706327e-05</v>
+        <v>-0.0005289297000000001</v>
       </c>
       <c r="C9">
-        <v>-1.8725460766e-05</v>
+        <v>-0.0004399406</v>
       </c>
       <c r="D9">
-        <v>-1.1223915396e-05</v>
+        <v>-0.0001545882</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10">
-        <v>53973.531043</v>
+        <v>54018.263045</v>
       </c>
       <c r="B10">
-        <v>-0.0007221125</v>
+        <v>-0.000346102</v>
       </c>
       <c r="C10">
-        <v>-0.0006071596</v>
+        <v>-0.0002861825</v>
       </c>
       <c r="D10">
-        <v>-0.0002049888</v>
+        <v>-0.0001035879</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11">
-        <v>54018.263045</v>
+        <v>54029.199046</v>
       </c>
       <c r="B11">
-        <v>-0.000346102</v>
+        <v>-0.00015127031304</v>
       </c>
       <c r="C11">
-        <v>-0.0002861825</v>
+        <v>-0.00012698569749</v>
       </c>
       <c r="D11">
-        <v>-0.0001035879</v>
+        <v>-5.4829716529e-05</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12">
-        <v>53929.267041</v>
+        <v>54041.731046</v>
       </c>
       <c r="B12">
-        <v>-0.00017036153384</v>
+        <v>-2.1256706327e-05</v>
       </c>
       <c r="C12">
-        <v>-0.00014076795987</v>
+        <v>-1.8725460766e-05</v>
       </c>
       <c r="D12">
-        <v>-5.2807126601e-05</v>
+        <v>-1.1223915396e-05</v>
       </c>
     </row>
   </sheetData>
